--- a/Diseño/polez_zeros_legendre.xlsx
+++ b/Diseño/polez_zeros_legendre.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unidades compartidas\Grupo TC Volcán\TP Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP7\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B9F69-121B-4E56-9DCF-2D82DFCDD52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB2731-9860-4523-A1E9-B1632F8542B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
+    <workbookView xWindow="-10092" yWindow="5316" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Conf. 1" sheetId="1" r:id="rId1"/>
     <sheet name="Conf. 2" sheetId="2" r:id="rId2"/>
     <sheet name="Conf. 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Conf. 4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>Pole Q</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>STAGE</t>
+  </si>
+  <si>
+    <t>PRIMER ORDEN</t>
   </si>
 </sst>
 </file>
@@ -87,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,6 +143,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,6 +429,99 @@
         <a:xfrm>
           <a:off x="7413812" y="179294"/>
           <a:ext cx="2362405" cy="5745978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164177</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165228</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3205658B-C7FA-4BD0-A912-4EC744FD089E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919057" y="305493"/>
+          <a:ext cx="1783235" cy="460012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591671</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476737</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732CD453-A315-45AC-97DF-614516AE224A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8498542" y="0"/>
+          <a:ext cx="3040643" cy="6424217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158ACA49-AB04-4CFD-AEF0-FD3A8A86CE87}">
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1266,4 +1370,213 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F29FDC-4AA0-4991-BDAC-93E854C15AC7}">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13460.38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.93</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ACOS(1/(2*C3))</f>
+        <v>1.5204225581814281</v>
+      </c>
+      <c r="E3" s="2">
+        <f>B3*COS(D3)</f>
+        <v>677.76334340382641</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3*SIN(D3)</f>
+        <v>13443.305642390864</v>
+      </c>
+      <c r="G3">
+        <f>SQRT(E3*E3+F3*F3)</f>
+        <v>13460.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14551.2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D8" si="0">ACOS(1/(2*C4))</f>
+        <v>1.409845911673274</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="1">B4*COS(D4)</f>
+        <v>2331.9230769230767</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F8" si="2">B4*SIN(D4)</f>
+        <v>14363.131838262629</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="3">SQRT(E4*E4+F4*F4)</f>
+        <v>14551.199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17008.55</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2629254583968432</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>5154.1060606060628</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>16208.823640798977</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>17008.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21646.44</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>10823.220000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>18746.36694149562</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>21646.439999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>29563.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65400969323155678</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>23463.015873015876</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>17985.591613917102</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>29563.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36040</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>36040</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>36040</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Diseño/polez_zeros_legendre.xlsx
+++ b/Diseño/polez_zeros_legendre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP7\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB2731-9860-4523-A1E9-B1632F8542B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9855B-8D57-493B-B4D0-8AA1905665D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10092" yWindow="5316" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Conf. 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>Pole Q</t>
   </si>
@@ -1377,7 +1377,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Diseño/polez_zeros_legendre.xlsx
+++ b/Diseño/polez_zeros_legendre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP7\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malemuller/Desktop/TP7/Diseño/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C9855B-8D57-493B-B4D0-8AA1905665D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EACC3-7A44-8E4B-B4EE-397A0AD02030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
+    <workbookView xWindow="1380" yWindow="500" windowWidth="23260" windowHeight="14340" activeTab="3" xr2:uid="{832EFF2D-5292-4B1D-BA49-1F4645D26A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Conf. 1" sheetId="1" r:id="rId1"/>
@@ -445,15 +445,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>164177</xdr:colOff>
+      <xdr:colOff>836706</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>122613</xdr:rowOff>
+      <xdr:rowOff>152496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165228</xdr:colOff>
+      <xdr:colOff>718051</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>33985</xdr:rowOff>
+      <xdr:rowOff>63868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -476,8 +476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4919057" y="305493"/>
-          <a:ext cx="1783235" cy="460012"/>
+          <a:off x="6454588" y="346731"/>
+          <a:ext cx="1793816" cy="494078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,15 +836,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>13499.500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
         <v>14863.92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -945,7 +945,7 @@
         <v>18029.39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -972,7 +972,7 @@
         <v>24255.390000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1014,14 +1014,14 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>13303.81</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>13303.810000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>14189.88</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>14189.88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>16143.38</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>16143.38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>19669.599999999999</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>19669.599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>25526.33</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>25526.329999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>32337.61</v>
       </c>
@@ -1197,14 +1197,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>13045.52</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>13045.519999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>13954.1</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>13954.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>15964.1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15964.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>19671.71</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>19671.71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>26152.6</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>26152.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>34365.43</v>
       </c>
@@ -1376,20 +1376,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F29FDC-4AA0-4991-BDAC-93E854C15AC7}">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>13460.38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>14551.199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>17008.55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>21646.439999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>29563.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
